--- a/medicine/Psychotrope/Huile_de_haschich/Huile_de_haschich.xlsx
+++ b/medicine/Psychotrope/Huile_de_haschich/Huile_de_haschich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'huile de haschich, également connue sous le nom d'huile de miel ou d'huile de cannabis, est une oléorésine obtenue par extraction de cannabis ou de haschisch. Elle ne doit pas être confondue avec l'huile de chanvre.
 L'huile contient entre 60 et 90 % de THC, concentré issu d'une extraction à l'aide de solvants (généralement solvant apolaire car le THC est soluble dans ceux-ci). Les feuilles sont mélangées au solvant pendant quelques minutes puis retirées par filtration. Le solvant est ensuite évaporé pour laisser apparaître l'huile
